--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf11</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34238106669166</v>
+        <v>1.409861</v>
       </c>
       <c r="H2">
-        <v>1.34238106669166</v>
+        <v>4.229583</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8996799439973785</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9308061179577465</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20240712079034</v>
+        <v>2.216812</v>
       </c>
       <c r="N2">
-        <v>2.20240712079034</v>
+        <v>4.433624</v>
       </c>
       <c r="O2">
-        <v>0.03513969187270078</v>
+        <v>0.03478955304943803</v>
       </c>
       <c r="P2">
-        <v>0.03513969187270078</v>
+        <v>0.0236002455591832</v>
       </c>
       <c r="Q2">
-        <v>2.956469620095844</v>
+        <v>3.125396783132</v>
       </c>
       <c r="R2">
-        <v>2.956469620095844</v>
+        <v>18.752380698792</v>
       </c>
       <c r="S2">
-        <v>0.03513969187270078</v>
+        <v>0.03129946313921224</v>
       </c>
       <c r="T2">
-        <v>0.03513969187270078</v>
+        <v>0.02196725295179286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34238106669166</v>
+        <v>1.409861</v>
       </c>
       <c r="H3">
-        <v>1.34238106669166</v>
+        <v>4.229583</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8996799439973785</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9308061179577465</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.1777423858709</v>
+        <v>30.291975</v>
       </c>
       <c r="N3">
-        <v>30.1777423858709</v>
+        <v>90.875925</v>
       </c>
       <c r="O3">
-        <v>0.4814898021546102</v>
+        <v>0.4753872999761597</v>
       </c>
       <c r="P3">
-        <v>0.4814898021546102</v>
+        <v>0.4837338812262644</v>
       </c>
       <c r="Q3">
-        <v>40.5100300142915</v>
+        <v>42.707474165475</v>
       </c>
       <c r="R3">
-        <v>40.5100300142915</v>
+        <v>384.367267489275</v>
       </c>
       <c r="S3">
-        <v>0.4814898021546102</v>
+        <v>0.4276964194196163</v>
       </c>
       <c r="T3">
-        <v>0.4814898021546102</v>
+        <v>0.4502624561088528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.34238106669166</v>
+        <v>1.409861</v>
       </c>
       <c r="H4">
-        <v>1.34238106669166</v>
+        <v>4.229583</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8996799439973785</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9308061179577465</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.2997291844685</v>
+        <v>28.90471933333333</v>
       </c>
       <c r="N4">
-        <v>28.2997291844685</v>
+        <v>86.714158</v>
       </c>
       <c r="O4">
-        <v>0.4515258574292304</v>
+        <v>0.4536163944556945</v>
       </c>
       <c r="P4">
-        <v>0.4515258574292304</v>
+        <v>0.4615807344641337</v>
       </c>
       <c r="Q4">
-        <v>37.98902064973193</v>
+        <v>40.75163650401267</v>
       </c>
       <c r="R4">
-        <v>37.98902064973193</v>
+        <v>366.764728536114</v>
       </c>
       <c r="S4">
-        <v>0.4515258574292304</v>
+        <v>0.408109572360192</v>
       </c>
       <c r="T4">
-        <v>0.4515258574292304</v>
+        <v>0.4296421715706457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.34238106669166</v>
+        <v>1.409861</v>
       </c>
       <c r="H5">
-        <v>1.34238106669166</v>
+        <v>4.229583</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8996799439973785</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9308061179577465</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9640859970117009</v>
+        <v>1.225528333333333</v>
       </c>
       <c r="N5">
-        <v>0.9640859970117009</v>
+        <v>3.676585</v>
       </c>
       <c r="O5">
-        <v>0.01538211739054839</v>
+        <v>0.01923283659872347</v>
       </c>
       <c r="P5">
-        <v>0.01538211739054839</v>
+        <v>0.01957051586224036</v>
       </c>
       <c r="Q5">
-        <v>1.29417078905106</v>
+        <v>1.727824601561667</v>
       </c>
       <c r="R5">
-        <v>1.29417078905106</v>
+        <v>15.550421414055</v>
       </c>
       <c r="S5">
-        <v>0.01538211739054839</v>
+        <v>0.01730339735405026</v>
       </c>
       <c r="T5">
-        <v>0.01538211739054839</v>
+        <v>0.01821635589616245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.409861</v>
+      </c>
+      <c r="H6">
+        <v>4.229583</v>
+      </c>
+      <c r="I6">
+        <v>0.8996799439973785</v>
+      </c>
+      <c r="J6">
+        <v>0.9308061179577465</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.0815885</v>
+      </c>
+      <c r="N6">
+        <v>2.163177</v>
+      </c>
+      <c r="O6">
+        <v>0.01697391591998424</v>
+      </c>
+      <c r="P6">
+        <v>0.01151462288817844</v>
+      </c>
+      <c r="Q6">
+        <v>1.5248894441985</v>
+      </c>
+      <c r="R6">
+        <v>9.149336665191001</v>
+      </c>
+      <c r="S6">
+        <v>0.01527109172430763</v>
+      </c>
+      <c r="T6">
+        <v>0.01071788143029279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.1572085</v>
+      </c>
+      <c r="H7">
+        <v>0.314417</v>
+      </c>
+      <c r="I7">
+        <v>0.1003200560026214</v>
+      </c>
+      <c r="J7">
+        <v>0.06919388204225353</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.216812</v>
+      </c>
+      <c r="N7">
+        <v>4.433624</v>
+      </c>
+      <c r="O7">
+        <v>0.03478955304943803</v>
+      </c>
+      <c r="P7">
+        <v>0.0236002455591832</v>
+      </c>
+      <c r="Q7">
+        <v>0.348501689302</v>
+      </c>
+      <c r="R7">
+        <v>1.394006757208</v>
+      </c>
+      <c r="S7">
+        <v>0.003490089910225793</v>
+      </c>
+      <c r="T7">
+        <v>0.00163299260739034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.1572085</v>
+      </c>
+      <c r="H8">
+        <v>0.314417</v>
+      </c>
+      <c r="I8">
+        <v>0.1003200560026214</v>
+      </c>
+      <c r="J8">
+        <v>0.06919388204225353</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.291975</v>
+      </c>
+      <c r="N8">
+        <v>90.875925</v>
+      </c>
+      <c r="O8">
+        <v>0.4753872999761597</v>
+      </c>
+      <c r="P8">
+        <v>0.4837338812262644</v>
+      </c>
+      <c r="Q8">
+        <v>4.762155951787499</v>
+      </c>
+      <c r="R8">
+        <v>28.572935710725</v>
+      </c>
+      <c r="S8">
+        <v>0.04769088055654334</v>
+      </c>
+      <c r="T8">
+        <v>0.03347142511741162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.1572085</v>
+      </c>
+      <c r="H9">
+        <v>0.314417</v>
+      </c>
+      <c r="I9">
+        <v>0.1003200560026214</v>
+      </c>
+      <c r="J9">
+        <v>0.06919388204225353</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.90471933333333</v>
+      </c>
+      <c r="N9">
+        <v>86.714158</v>
+      </c>
+      <c r="O9">
+        <v>0.4536163944556945</v>
+      </c>
+      <c r="P9">
+        <v>0.4615807344641337</v>
+      </c>
+      <c r="Q9">
+        <v>4.544067569314334</v>
+      </c>
+      <c r="R9">
+        <v>27.264405415886</v>
+      </c>
+      <c r="S9">
+        <v>0.0455068220955025</v>
+      </c>
+      <c r="T9">
+        <v>0.03193856289348802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.34238106669166</v>
-      </c>
-      <c r="H6">
-        <v>1.34238106669166</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.0318017576463</v>
-      </c>
-      <c r="N6">
-        <v>1.0318017576463</v>
-      </c>
-      <c r="O6">
-        <v>0.01646253115291013</v>
-      </c>
-      <c r="P6">
-        <v>0.01646253115291013</v>
-      </c>
-      <c r="Q6">
-        <v>1.38507114404357</v>
-      </c>
-      <c r="R6">
-        <v>1.38507114404357</v>
-      </c>
-      <c r="S6">
-        <v>0.01646253115291013</v>
-      </c>
-      <c r="T6">
-        <v>0.01646253115291013</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.1572085</v>
+      </c>
+      <c r="H10">
+        <v>0.314417</v>
+      </c>
+      <c r="I10">
+        <v>0.1003200560026214</v>
+      </c>
+      <c r="J10">
+        <v>0.06919388204225353</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.225528333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.676585</v>
+      </c>
+      <c r="O10">
+        <v>0.01923283659872347</v>
+      </c>
+      <c r="P10">
+        <v>0.01957051586224036</v>
+      </c>
+      <c r="Q10">
+        <v>0.1926634709908333</v>
+      </c>
+      <c r="R10">
+        <v>1.155980825945</v>
+      </c>
+      <c r="S10">
+        <v>0.001929439244673206</v>
+      </c>
+      <c r="T10">
+        <v>0.001354159966077911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.1572085</v>
+      </c>
+      <c r="H11">
+        <v>0.314417</v>
+      </c>
+      <c r="I11">
+        <v>0.1003200560026214</v>
+      </c>
+      <c r="J11">
+        <v>0.06919388204225353</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.0815885</v>
+      </c>
+      <c r="N11">
+        <v>2.163177</v>
+      </c>
+      <c r="O11">
+        <v>0.01697391591998424</v>
+      </c>
+      <c r="P11">
+        <v>0.01151462288817844</v>
+      </c>
+      <c r="Q11">
+        <v>0.17003490570225</v>
+      </c>
+      <c r="R11">
+        <v>0.6801396228090001</v>
+      </c>
+      <c r="S11">
+        <v>0.001702824195676607</v>
+      </c>
+      <c r="T11">
+        <v>0.0007967414578856515</v>
       </c>
     </row>
   </sheetData>
